--- a/TestData/LV_TMTT0035971_VerifyOpportunityToEngagementConversionDefaultStartDateStatus.xlsx
+++ b/TestData/LV_TMTT0035971_VerifyOpportunityToEngagementConversionDefaultStartDateStatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD730A2-003D-462E-B71F-84C229AC4AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEE0E28-78EC-4A90-B1F8-9C89586A84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" tabRatio="548" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUsers" sheetId="2" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Gemma Hardy</t>
-  </si>
-  <si>
     <t>CAO</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Jennie Stewart</t>
   </si>
 </sst>
 </file>
@@ -648,14 +648,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyFont="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{5636E606-A66F-4C7B-A038-D0ADB18AD88A}"/>
@@ -1000,7 +999,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1015,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBB8EB1-471A-4668-845A-6810E22F6BA4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,10 +1033,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1104,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD13242-055E-41A8-80D8-6F50F1B57F7C}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,192 +1120,192 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="S2" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="T2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" t="s">
-        <v>54</v>
-      </c>
       <c r="AA2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s">
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1337,54 +1336,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
